--- a/Analisis_Previo.xlsx
+++ b/Analisis_Previo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>CONTENIDO</t>
   </si>
@@ -104,7 +104,10 @@
     <t>* Ecológico:  No nos afecta especialmente nuestro entorno.</t>
   </si>
   <si>
-    <t>* Legislativo:</t>
+    <t>* Certificados de profesionalidad / Microsoft.</t>
+  </si>
+  <si>
+    <t>* Legislativo: Copyright.</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,75 +544,80 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Analisis_Previo.xlsx
+++ b/Analisis_Previo.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analisis_Previo.xlsx
+++ b/Analisis_Previo.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
